--- a/Statistik_Keketatan_Prodi_smbnu_2023.xlsx
+++ b/Statistik_Keketatan_Prodi_smbnu_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\05_SMBNU\23smbnu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8863A11-AAFB-42D6-9A19-9BE7662311D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2F2C9-3C69-43FC-B228-6E55F4493116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>IF(A1="no",1,A1+1)</f>
+        <f t="shared" ref="A2:A45" si="0">IF(A1="no",1,A1+1)</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -697,7 +697,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <f>ROUND(F2/E2*100,1)</f>
+        <f t="shared" ref="G2:G45" si="1">ROUND(F2/E2*100,1)</f>
         <v>1.6</v>
       </c>
       <c r="H2" s="2">
@@ -705,21 +705,21 @@
         <v>7</v>
       </c>
       <c r="I2">
-        <f>ROUND(H2/E2*100,1)</f>
-        <v>1.6</v>
+        <f>ROUND(H2/F2*100,1)</f>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
         <f>F2-H2</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>100-I2</f>
-        <v>98.4</v>
+        <f t="shared" ref="K2:K45" si="2">100-I2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>IF(A2="no",1,A2+1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3">
@@ -739,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <f>ROUND(F3/E3*100,1)</f>
+        <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
       <c r="H3" s="2">
@@ -747,21 +747,21 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>ROUND(H3/E3*100,1)</f>
+        <f t="shared" ref="I3:I45" si="3">ROUND(H3/F3*100,1)</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J45" si="0">F3-H3</f>
+        <f t="shared" ref="J3:J45" si="4">F3-H3</f>
         <v>9</v>
       </c>
       <c r="K3">
-        <f>100-I3</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>IF(A3="no",1,A3+1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4">
@@ -781,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f>ROUND(F4/E4*100,1)</f>
+        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="H4" s="2">
@@ -789,21 +789,21 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f>ROUND(H4/E4*100,1)</f>
-        <v>0.9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K4">
-        <f>100-I4</f>
-        <v>99.1</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>IF(A4="no",1,A4+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5">
@@ -823,7 +823,7 @@
         <v>34</v>
       </c>
       <c r="G5">
-        <f>ROUND(F5/E5*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11.1</v>
       </c>
       <c r="H5" s="2">
@@ -831,21 +831,21 @@
         <v>21</v>
       </c>
       <c r="I5">
-        <f>ROUND(H5/E5*100,1)</f>
-        <v>6.9</v>
+        <f t="shared" si="3"/>
+        <v>61.8</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K5">
-        <f>100-I5</f>
-        <v>93.1</v>
+        <f t="shared" si="2"/>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>IF(A5="no",1,A5+1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6">
@@ -865,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="G6">
-        <f>ROUND(F6/E6*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11.1</v>
       </c>
       <c r="H6" s="2">
@@ -873,21 +873,21 @@
         <v>11</v>
       </c>
       <c r="I6">
-        <f>ROUND(H6/E6*100,1)</f>
-        <v>5.0999999999999996</v>
+        <f t="shared" si="3"/>
+        <v>45.8</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K6">
-        <f>100-I6</f>
-        <v>94.9</v>
+        <f t="shared" si="2"/>
+        <v>54.2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>IF(A6="no",1,A6+1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7">
@@ -907,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="G7">
-        <f>ROUND(F7/E7*100,1)</f>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="H7" s="2">
@@ -915,21 +915,21 @@
         <v>16</v>
       </c>
       <c r="I7">
-        <f>ROUND(H7/E7*100,1)</f>
-        <v>6.5</v>
+        <f t="shared" si="3"/>
+        <v>57.1</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K7">
-        <f>100-I7</f>
-        <v>93.5</v>
+        <f t="shared" si="2"/>
+        <v>42.9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>IF(A7="no",1,A7+1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8">
@@ -949,7 +949,7 @@
         <v>57</v>
       </c>
       <c r="G8">
-        <f>ROUND(F8/E8*100,1)</f>
+        <f t="shared" si="1"/>
         <v>16.100000000000001</v>
       </c>
       <c r="H8" s="2">
@@ -957,21 +957,21 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <f>ROUND(H8/E8*100,1)</f>
-        <v>12.5</v>
+        <f t="shared" si="3"/>
+        <v>77.2</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K8">
-        <f>100-I8</f>
-        <v>87.5</v>
+        <f t="shared" si="2"/>
+        <v>22.799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>IF(A8="no",1,A8+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9">
@@ -991,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="G9">
-        <f>ROUND(F9/E9*100,1)</f>
+        <f t="shared" si="1"/>
         <v>17.3</v>
       </c>
       <c r="H9" s="2">
@@ -999,21 +999,21 @@
         <v>17</v>
       </c>
       <c r="I9">
-        <f>ROUND(H9/E9*100,1)</f>
-        <v>8.1999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>47.2</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K9">
-        <f>100-I9</f>
-        <v>91.8</v>
+        <f t="shared" si="2"/>
+        <v>52.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>IF(A9="no",1,A9+1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1033,7 +1033,7 @@
         <v>49</v>
       </c>
       <c r="G10">
-        <f>ROUND(F10/E10*100,1)</f>
+        <f t="shared" si="1"/>
         <v>17.899999999999999</v>
       </c>
       <c r="H10" s="2">
@@ -1041,21 +1041,21 @@
         <v>34</v>
       </c>
       <c r="I10">
-        <f>ROUND(H10/E10*100,1)</f>
-        <v>12.5</v>
+        <f t="shared" si="3"/>
+        <v>69.400000000000006</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="K10">
-        <f>100-I10</f>
-        <v>87.5</v>
+        <f t="shared" si="2"/>
+        <v>30.599999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>IF(A10="no",1,A10+1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1075,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="G11">
-        <f>ROUND(F11/E11*100,1)</f>
+        <f t="shared" si="1"/>
         <v>18.3</v>
       </c>
       <c r="H11" s="2">
@@ -1083,21 +1083,21 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <f>ROUND(H11/E11*100,1)</f>
-        <v>9.1999999999999993</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K11">
-        <f>100-I11</f>
-        <v>90.8</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>IF(A11="no",1,A11+1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1117,7 +1117,7 @@
         <v>30</v>
       </c>
       <c r="G12">
-        <f>ROUND(F12/E12*100,1)</f>
+        <f t="shared" si="1"/>
         <v>21.3</v>
       </c>
       <c r="H12" s="2">
@@ -1125,21 +1125,21 @@
         <v>15</v>
       </c>
       <c r="I12">
-        <f>ROUND(H12/E12*100,1)</f>
-        <v>10.6</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="K12">
-        <f>100-I12</f>
-        <v>89.4</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>IF(A12="no",1,A12+1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1159,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="G13">
-        <f>ROUND(F13/E13*100,1)</f>
+        <f t="shared" si="1"/>
         <v>22.4</v>
       </c>
       <c r="H13" s="2">
@@ -1167,21 +1167,21 @@
         <v>15</v>
       </c>
       <c r="I13">
-        <f>ROUND(H13/E13*100,1)</f>
-        <v>11.2</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="K13">
-        <f>100-I13</f>
-        <v>88.8</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>IF(A13="no",1,A13+1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14">
@@ -1201,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <f>ROUND(F14/E14*100,1)</f>
+        <f t="shared" si="1"/>
         <v>23.2</v>
       </c>
       <c r="H14" s="2">
@@ -1209,21 +1209,21 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <f>ROUND(H14/E14*100,1)</f>
-        <v>12.1</v>
+        <f t="shared" si="3"/>
+        <v>52.2</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="K14">
-        <f>100-I14</f>
-        <v>87.9</v>
+        <f t="shared" si="2"/>
+        <v>47.8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>IF(A14="no",1,A14+1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15">
@@ -1243,7 +1243,7 @@
         <v>108</v>
       </c>
       <c r="G15">
-        <f>ROUND(F15/E15*100,1)</f>
+        <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
       <c r="H15" s="2">
@@ -1251,21 +1251,21 @@
         <v>70</v>
       </c>
       <c r="I15">
-        <f>ROUND(H15/E15*100,1)</f>
-        <v>15.2</v>
+        <f t="shared" si="3"/>
+        <v>64.8</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="K15">
-        <f>100-I15</f>
-        <v>84.8</v>
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>IF(A15="no",1,A15+1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16">
@@ -1285,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="G16">
-        <f>ROUND(F16/E16*100,1)</f>
+        <f t="shared" si="1"/>
         <v>26.2</v>
       </c>
       <c r="H16" s="2">
@@ -1293,21 +1293,21 @@
         <v>16</v>
       </c>
       <c r="I16">
-        <f>ROUND(H16/E16*100,1)</f>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>57.1</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K16">
-        <f>100-I16</f>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>42.9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>IF(A16="no",1,A16+1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17">
@@ -1327,7 +1327,7 @@
         <v>35</v>
       </c>
       <c r="G17">
-        <f>ROUND(F17/E17*100,1)</f>
+        <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
       <c r="H17" s="2">
@@ -1335,21 +1335,21 @@
         <v>18</v>
       </c>
       <c r="I17">
-        <f>ROUND(H17/E17*100,1)</f>
-        <v>13.6</v>
+        <f t="shared" si="3"/>
+        <v>51.4</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K17">
-        <f>100-I17</f>
-        <v>86.4</v>
+        <f t="shared" si="2"/>
+        <v>48.6</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>IF(A17="no",1,A17+1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18">
@@ -1369,7 +1369,7 @@
         <v>54</v>
       </c>
       <c r="G18">
-        <f>ROUND(F18/E18*100,1)</f>
+        <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
       <c r="H18" s="2">
@@ -1377,21 +1377,21 @@
         <v>28</v>
       </c>
       <c r="I18">
-        <f>ROUND(H18/E18*100,1)</f>
-        <v>14.1</v>
+        <f t="shared" si="3"/>
+        <v>51.9</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="K18">
-        <f>100-I18</f>
-        <v>85.9</v>
+        <f t="shared" si="2"/>
+        <v>48.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>IF(A18="no",1,A18+1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19">
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="G19">
-        <f>ROUND(F19/E19*100,1)</f>
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="H19" s="2">
@@ -1419,21 +1419,21 @@
         <v>14</v>
       </c>
       <c r="I19">
-        <f>ROUND(H19/E19*100,1)</f>
-        <v>12.8</v>
+        <f t="shared" si="3"/>
+        <v>46.7</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K19">
-        <f>100-I19</f>
-        <v>87.2</v>
+        <f t="shared" si="2"/>
+        <v>53.3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>IF(A19="no",1,A19+1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20">
@@ -1453,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <f>ROUND(F20/E20*100,1)</f>
+        <f t="shared" si="1"/>
         <v>28.6</v>
       </c>
       <c r="H20" s="2">
@@ -1461,21 +1461,21 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <f>ROUND(H20/E20*100,1)</f>
-        <v>14.3</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K20">
-        <f>100-I20</f>
-        <v>85.7</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>IF(A20="no",1,A20+1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21">
@@ -1495,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="G21">
-        <f>ROUND(F21/E21*100,1)</f>
+        <f t="shared" si="1"/>
         <v>30.3</v>
       </c>
       <c r="H21" s="2">
@@ -1503,21 +1503,21 @@
         <v>16</v>
       </c>
       <c r="I21">
-        <f>ROUND(H21/E21*100,1)</f>
-        <v>16.2</v>
+        <f t="shared" si="3"/>
+        <v>53.3</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="K21">
-        <f>100-I21</f>
-        <v>83.8</v>
+        <f t="shared" si="2"/>
+        <v>46.7</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>IF(A21="no",1,A21+1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22">
@@ -1537,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="G22">
-        <f>ROUND(F22/E22*100,1)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="H22" s="2">
@@ -1545,21 +1545,21 @@
         <v>13</v>
       </c>
       <c r="I22">
-        <f>ROUND(H22/E22*100,1)</f>
-        <v>18.3</v>
+        <f t="shared" si="3"/>
+        <v>59.1</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K22">
-        <f>100-I22</f>
-        <v>81.7</v>
+        <f t="shared" si="2"/>
+        <v>40.9</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>IF(A22="no",1,A22+1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23">
@@ -1579,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="G23">
-        <f>ROUND(F23/E23*100,1)</f>
+        <f t="shared" si="1"/>
         <v>31.3</v>
       </c>
       <c r="H23" s="2">
@@ -1587,21 +1587,21 @@
         <v>13</v>
       </c>
       <c r="I23">
-        <f>ROUND(H23/E23*100,1)</f>
-        <v>16.3</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K23">
-        <f>100-I23</f>
-        <v>83.7</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>IF(A23="no",1,A23+1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24">
@@ -1621,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <f>ROUND(F24/E24*100,1)</f>
+        <f t="shared" si="1"/>
         <v>31.7</v>
       </c>
       <c r="H24" s="2">
@@ -1629,21 +1629,21 @@
         <v>6</v>
       </c>
       <c r="I24">
-        <f>ROUND(H24/E24*100,1)</f>
-        <v>9.5</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="K24">
-        <f>100-I24</f>
-        <v>90.5</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>IF(A24="no",1,A24+1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25">
@@ -1663,7 +1663,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <f>ROUND(F25/E25*100,1)</f>
+        <f t="shared" si="1"/>
         <v>36.1</v>
       </c>
       <c r="H25" s="2">
@@ -1671,21 +1671,21 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <f>ROUND(H25/E25*100,1)</f>
-        <v>14.8</v>
+        <f t="shared" si="3"/>
+        <v>40.9</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K25">
-        <f>100-I25</f>
-        <v>85.2</v>
+        <f t="shared" si="2"/>
+        <v>59.1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>IF(A25="no",1,A25+1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26">
@@ -1705,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="G26">
-        <f>ROUND(F26/E26*100,1)</f>
+        <f t="shared" si="1"/>
         <v>37.9</v>
       </c>
       <c r="H26" s="2">
@@ -1713,21 +1713,21 @@
         <v>15</v>
       </c>
       <c r="I26">
-        <f>ROUND(H26/E26*100,1)</f>
-        <v>17.2</v>
+        <f t="shared" si="3"/>
+        <v>45.5</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K26">
-        <f>100-I26</f>
-        <v>82.8</v>
+        <f t="shared" si="2"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>IF(A26="no",1,A26+1)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27">
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="G27">
-        <f>ROUND(F27/E27*100,1)</f>
+        <f t="shared" si="1"/>
         <v>46.9</v>
       </c>
       <c r="H27" s="2">
@@ -1755,21 +1755,21 @@
         <v>9</v>
       </c>
       <c r="I27">
-        <f>ROUND(H27/E27*100,1)</f>
-        <v>28.1</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K27">
-        <f>100-I27</f>
-        <v>71.900000000000006</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>IF(A27="no",1,A27+1)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28">
@@ -1789,7 +1789,7 @@
         <v>31</v>
       </c>
       <c r="G28">
-        <f>ROUND(F28/E28*100,1)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="H28" s="2">
@@ -1797,21 +1797,21 @@
         <v>12</v>
       </c>
       <c r="I28">
-        <f>ROUND(H28/E28*100,1)</f>
-        <v>18.2</v>
+        <f t="shared" si="3"/>
+        <v>38.700000000000003</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K28">
-        <f>100-I28</f>
-        <v>81.8</v>
+        <f t="shared" si="2"/>
+        <v>61.3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>IF(A28="no",1,A28+1)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29">
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="G29">
-        <f>ROUND(F29/E29*100,1)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H29" s="2">
@@ -1839,21 +1839,21 @@
         <v>9</v>
       </c>
       <c r="I29">
-        <f>ROUND(H29/E29*100,1)</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K29">
-        <f>100-I29</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>IF(A29="no",1,A29+1)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30">
@@ -1873,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <f>ROUND(F30/E30*100,1)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="H30" s="2">
@@ -1881,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>ROUND(H30/E30*100,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K30">
-        <f>100-I30</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>IF(A30="no",1,A30+1)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31">
@@ -1915,7 +1915,7 @@
         <v>57</v>
       </c>
       <c r="G31">
-        <f>ROUND(F31/E31*100,1)</f>
+        <f t="shared" si="1"/>
         <v>52.8</v>
       </c>
       <c r="H31" s="2">
@@ -1923,21 +1923,21 @@
         <v>31</v>
       </c>
       <c r="I31">
-        <f>ROUND(H31/E31*100,1)</f>
-        <v>28.7</v>
+        <f t="shared" si="3"/>
+        <v>54.4</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="K31">
-        <f>100-I31</f>
-        <v>71.3</v>
+        <f t="shared" si="2"/>
+        <v>45.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>IF(A31="no",1,A31+1)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="G32">
-        <f>ROUND(F32/E32*100,1)</f>
+        <f t="shared" si="1"/>
         <v>57.7</v>
       </c>
       <c r="H32" s="2">
@@ -1965,21 +1965,21 @@
         <v>8</v>
       </c>
       <c r="I32">
-        <f>ROUND(H32/E32*100,1)</f>
-        <v>30.8</v>
+        <f t="shared" si="3"/>
+        <v>53.3</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K32">
-        <f>100-I32</f>
-        <v>69.2</v>
+        <f t="shared" si="2"/>
+        <v>46.7</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>IF(A32="no",1,A32+1)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33">
@@ -1999,7 +1999,7 @@
         <v>42</v>
       </c>
       <c r="G33">
-        <f>ROUND(F33/E33*100,1)</f>
+        <f t="shared" si="1"/>
         <v>58.3</v>
       </c>
       <c r="H33" s="2">
@@ -2007,21 +2007,21 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <f>ROUND(H33/E33*100,1)</f>
-        <v>13.9</v>
+        <f t="shared" si="3"/>
+        <v>23.8</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K33">
-        <f>100-I33</f>
-        <v>86.1</v>
+        <f t="shared" si="2"/>
+        <v>76.2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>IF(A33="no",1,A33+1)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34">
@@ -2041,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="G34">
-        <f>ROUND(F34/E34*100,1)</f>
+        <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
       <c r="H34" s="2">
@@ -2049,21 +2049,21 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <f>ROUND(H34/E34*100,1)</f>
-        <v>27.3</v>
+        <f t="shared" si="3"/>
+        <v>42.9</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K34">
-        <f>100-I34</f>
-        <v>72.7</v>
+        <f t="shared" si="2"/>
+        <v>57.1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>IF(A34="no",1,A34+1)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35">
@@ -2083,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="G35">
-        <f>ROUND(F35/E35*100,1)</f>
+        <f t="shared" si="1"/>
         <v>66.7</v>
       </c>
       <c r="H35" s="2">
@@ -2091,21 +2091,21 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <f>ROUND(H35/E35*100,1)</f>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>37.5</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K35">
-        <f>100-I35</f>
-        <v>75</v>
+        <f t="shared" si="2"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>IF(A35="no",1,A35+1)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36">
@@ -2125,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="G36">
-        <f>ROUND(F36/E36*100,1)</f>
+        <f t="shared" si="1"/>
         <v>66.7</v>
       </c>
       <c r="H36" s="2">
@@ -2133,21 +2133,21 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <f>ROUND(H36/E36*100,1)</f>
-        <v>33.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K36">
-        <f>100-I36</f>
-        <v>66.7</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>IF(A36="no",1,A36+1)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37">
@@ -2167,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="G37">
-        <f>ROUND(F37/E37*100,1)</f>
+        <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
       <c r="H37" s="2">
@@ -2175,21 +2175,21 @@
         <v>8</v>
       </c>
       <c r="I37">
-        <f>ROUND(H37/E37*100,1)</f>
-        <v>36.4</v>
+        <f t="shared" si="3"/>
+        <v>53.3</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K37">
-        <f>100-I37</f>
-        <v>63.6</v>
+        <f t="shared" si="2"/>
+        <v>46.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>IF(A37="no",1,A37+1)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38">
@@ -2209,7 +2209,7 @@
         <v>40</v>
       </c>
       <c r="G38">
-        <f>ROUND(F38/E38*100,1)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="H38" s="2">
@@ -2217,21 +2217,21 @@
         <v>20</v>
       </c>
       <c r="I38">
-        <f>ROUND(H38/E38*100,1)</f>
-        <v>34.5</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K38">
-        <f>100-I38</f>
-        <v>65.5</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>IF(A38="no",1,A38+1)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39">
@@ -2251,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="G39">
-        <f>ROUND(F39/E39*100,1)</f>
+        <f t="shared" si="1"/>
         <v>71.900000000000006</v>
       </c>
       <c r="H39" s="2">
@@ -2259,21 +2259,21 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <f>ROUND(H39/E39*100,1)</f>
-        <v>31.3</v>
+        <f t="shared" si="3"/>
+        <v>43.5</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K39">
-        <f>100-I39</f>
-        <v>68.7</v>
+        <f t="shared" si="2"/>
+        <v>56.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>IF(A39="no",1,A39+1)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40">
@@ -2293,7 +2293,7 @@
         <v>25</v>
       </c>
       <c r="G40">
-        <f>ROUND(F40/E40*100,1)</f>
+        <f t="shared" si="1"/>
         <v>75.8</v>
       </c>
       <c r="H40" s="2">
@@ -2301,21 +2301,21 @@
         <v>8</v>
       </c>
       <c r="I40">
-        <f>ROUND(H40/E40*100,1)</f>
-        <v>24.2</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="K40">
-        <f>100-I40</f>
-        <v>75.8</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>IF(A40="no",1,A40+1)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41">
@@ -2335,7 +2335,7 @@
         <v>22</v>
       </c>
       <c r="G41">
-        <f>ROUND(F41/E41*100,1)</f>
+        <f t="shared" si="1"/>
         <v>78.599999999999994</v>
       </c>
       <c r="H41" s="2">
@@ -2343,21 +2343,21 @@
         <v>10</v>
       </c>
       <c r="I41">
-        <f>ROUND(H41/E41*100,1)</f>
-        <v>35.700000000000003</v>
+        <f t="shared" si="3"/>
+        <v>45.5</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K41">
-        <f>100-I41</f>
-        <v>64.3</v>
+        <f t="shared" si="2"/>
+        <v>54.5</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>IF(A41="no",1,A41+1)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42">
@@ -2377,7 +2377,7 @@
         <v>13</v>
       </c>
       <c r="G42">
-        <f>ROUND(F42/E42*100,1)</f>
+        <f t="shared" si="1"/>
         <v>81.3</v>
       </c>
       <c r="H42" s="2">
@@ -2385,21 +2385,21 @@
         <v>9</v>
       </c>
       <c r="I42">
-        <f>ROUND(H42/E42*100,1)</f>
-        <v>56.3</v>
+        <f t="shared" si="3"/>
+        <v>69.2</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K42">
-        <f>100-I42</f>
-        <v>43.7</v>
+        <f t="shared" si="2"/>
+        <v>30.799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>IF(A42="no",1,A42+1)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43">
@@ -2419,7 +2419,7 @@
         <v>27</v>
       </c>
       <c r="G43">
-        <f>ROUND(F43/E43*100,1)</f>
+        <f t="shared" si="1"/>
         <v>81.8</v>
       </c>
       <c r="H43" s="2">
@@ -2427,21 +2427,21 @@
         <v>11</v>
       </c>
       <c r="I43">
-        <f>ROUND(H43/E43*100,1)</f>
-        <v>33.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>40.700000000000003</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="K43">
-        <f>100-I43</f>
-        <v>66.7</v>
+        <f t="shared" si="2"/>
+        <v>59.3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>IF(A43="no",1,A43+1)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44">
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="G44">
-        <f>ROUND(F44/E44*100,1)</f>
+        <f t="shared" si="1"/>
         <v>88.9</v>
       </c>
       <c r="H44" s="2">
@@ -2469,21 +2469,21 @@
         <v>6</v>
       </c>
       <c r="I44">
-        <f>ROUND(H44/E44*100,1)</f>
-        <v>66.7</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K44">
-        <f>100-I44</f>
-        <v>33.299999999999997</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>IF(A44="no",1,A44+1)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45">
@@ -2503,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="G45">
-        <f>ROUND(F45/E45*100,1)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H45" s="2">
@@ -2511,16 +2511,16 @@
         <v>8</v>
       </c>
       <c r="I45">
-        <f>ROUND(H45/E45*100,1)</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>88.9</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K45">
-        <f>100-I45</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>11.099999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Statistik_Keketatan_Prodi_smbnu_2023.xlsx
+++ b/Statistik_Keketatan_Prodi_smbnu_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\05_SMBNU\23smbnu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF2F2C9-3C69-43FC-B228-6E55F4493116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CA660F-CA38-4AA0-B7E1-4BE47E48AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$42</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>KEPERAWATAN</t>
   </si>
@@ -218,6 +221,18 @@
   </si>
   <si>
     <t>PRODI</t>
+  </si>
+  <si>
+    <t>diterima_p1</t>
+  </si>
+  <si>
+    <t>pers_diterima_p1</t>
+  </si>
+  <si>
+    <t>diterima_p2</t>
+  </si>
+  <si>
+    <t>pers_diterima_p2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -333,6 +351,657 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Data Semua Peserta"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>ADMINISTRASI PUBLIK</v>
+          </cell>
+          <cell r="B5">
+            <v>130</v>
+          </cell>
+          <cell r="C5">
+            <v>144</v>
+          </cell>
+          <cell r="D5">
+            <v>274</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>AGRIBISNIS</v>
+          </cell>
+          <cell r="B6">
+            <v>86</v>
+          </cell>
+          <cell r="C6">
+            <v>114</v>
+          </cell>
+          <cell r="D6">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>AGROEKOTEKNOLOGI</v>
+          </cell>
+          <cell r="B7">
+            <v>43</v>
+          </cell>
+          <cell r="C7">
+            <v>65</v>
+          </cell>
+          <cell r="D7">
+            <v>108</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>AKUNTANSI</v>
+          </cell>
+          <cell r="B8">
+            <v>115</v>
+          </cell>
+          <cell r="C8">
+            <v>107</v>
+          </cell>
+          <cell r="D8">
+            <v>222</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>BIMBINGAN DAN KONSELING</v>
+          </cell>
+          <cell r="B9">
+            <v>17</v>
+          </cell>
+          <cell r="C9">
+            <v>46</v>
+          </cell>
+          <cell r="D9">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>EKONOMI PEMBANGUNAN</v>
+          </cell>
+          <cell r="B10">
+            <v>33</v>
+          </cell>
+          <cell r="C10">
+            <v>66</v>
+          </cell>
+          <cell r="D10">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>EKONOMI SYARIAH</v>
+          </cell>
+          <cell r="B11">
+            <v>31</v>
+          </cell>
+          <cell r="C11">
+            <v>51</v>
+          </cell>
+          <cell r="D11">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>GIZI</v>
+          </cell>
+          <cell r="B12">
+            <v>58</v>
+          </cell>
+          <cell r="C12">
+            <v>118</v>
+          </cell>
+          <cell r="D12">
+            <v>176</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>HUKUM</v>
+          </cell>
+          <cell r="B13">
+            <v>266</v>
+          </cell>
+          <cell r="C13">
+            <v>199</v>
+          </cell>
+          <cell r="D13">
+            <v>465</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>ILMU KELAUTAN</v>
+          </cell>
+          <cell r="B14">
+            <v>22</v>
+          </cell>
+          <cell r="C14">
+            <v>39</v>
+          </cell>
+          <cell r="D14">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>ILMU KEOLAHRAGAAN</v>
+          </cell>
+          <cell r="B15">
+            <v>6</v>
+          </cell>
+          <cell r="C15">
+            <v>4</v>
+          </cell>
+          <cell r="D15">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>ILMU KOMUNIKASI</v>
+          </cell>
+          <cell r="B16">
+            <v>195</v>
+          </cell>
+          <cell r="C16">
+            <v>163</v>
+          </cell>
+          <cell r="D16">
+            <v>358</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>ILMU PEMERINTAHAN</v>
+          </cell>
+          <cell r="B17">
+            <v>73</v>
+          </cell>
+          <cell r="C17">
+            <v>136</v>
+          </cell>
+          <cell r="D17">
+            <v>209</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>ILMU PERIKANAN</v>
+          </cell>
+          <cell r="B18">
+            <v>17</v>
+          </cell>
+          <cell r="C18">
+            <v>55</v>
+          </cell>
+          <cell r="D18">
+            <v>72</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>INFORMATIKA</v>
+          </cell>
+          <cell r="B19">
+            <v>125</v>
+          </cell>
+          <cell r="C19">
+            <v>96</v>
+          </cell>
+          <cell r="D19">
+            <v>221</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>KEDOKTERAN</v>
+          </cell>
+          <cell r="B20">
+            <v>448</v>
+          </cell>
+          <cell r="C20">
+            <v>7</v>
+          </cell>
+          <cell r="D20">
+            <v>455</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>KEPERAWATAN</v>
+          </cell>
+          <cell r="B21">
+            <v>56</v>
+          </cell>
+          <cell r="C21">
+            <v>61</v>
+          </cell>
+          <cell r="D21">
+            <v>117</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>MANAJEMEN</v>
+          </cell>
+          <cell r="B22">
+            <v>130</v>
+          </cell>
+          <cell r="C22">
+            <v>177</v>
+          </cell>
+          <cell r="D22">
+            <v>307</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>PENDIDIKAN BAHASA INDONESIA</v>
+          </cell>
+          <cell r="B23">
+            <v>25</v>
+          </cell>
+          <cell r="C23">
+            <v>41</v>
+          </cell>
+          <cell r="D23">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
+          </cell>
+          <cell r="B24">
+            <v>37</v>
+          </cell>
+          <cell r="C24">
+            <v>52</v>
+          </cell>
+          <cell r="D24">
+            <v>89</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>PENDIDIKAN BIOLOGI</v>
+          </cell>
+          <cell r="B25">
+            <v>12</v>
+          </cell>
+          <cell r="C25">
+            <v>23</v>
+          </cell>
+          <cell r="D25">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>PENDIDIKAN FISIKA</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+          <cell r="C26">
+            <v>6</v>
+          </cell>
+          <cell r="D26">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>PENDIDIKAN GURU PENDIDIKAN ANAK USIA DINI</v>
+          </cell>
+          <cell r="B27">
+            <v>10</v>
+          </cell>
+          <cell r="C27">
+            <v>18</v>
+          </cell>
+          <cell r="D27">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
+          </cell>
+          <cell r="B28">
+            <v>37</v>
+          </cell>
+          <cell r="C28">
+            <v>34</v>
+          </cell>
+          <cell r="D28">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>PENDIDIKAN IPA</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29">
+            <v>8</v>
+          </cell>
+          <cell r="D29">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>PENDIDIKAN KHUSUS</v>
+          </cell>
+          <cell r="B30">
+            <v>3</v>
+          </cell>
+          <cell r="C30">
+            <v>8</v>
+          </cell>
+          <cell r="D30">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>PENDIDIKAN KIMIA</v>
+          </cell>
+          <cell r="B31">
+            <v>8</v>
+          </cell>
+          <cell r="C31">
+            <v>14</v>
+          </cell>
+          <cell r="D31">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>PENDIDIKAN MATEMATIKA</v>
+          </cell>
+          <cell r="B32">
+            <v>10</v>
+          </cell>
+          <cell r="C32">
+            <v>22</v>
+          </cell>
+          <cell r="D32">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>PENDIDIKAN NON FORMAL</v>
+          </cell>
+          <cell r="B33">
+            <v>8</v>
+          </cell>
+          <cell r="C33">
+            <v>25</v>
+          </cell>
+          <cell r="D33">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
+          </cell>
+          <cell r="B34">
+            <v>12</v>
+          </cell>
+          <cell r="C34">
+            <v>20</v>
+          </cell>
+          <cell r="D34">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>PENDIDIKAN SEJARAH</v>
+          </cell>
+          <cell r="B35">
+            <v>10</v>
+          </cell>
+          <cell r="C35">
+            <v>16</v>
+          </cell>
+          <cell r="D35">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
+          </cell>
+          <cell r="B36">
+            <v>9</v>
+          </cell>
+          <cell r="C36">
+            <v>2</v>
+          </cell>
+          <cell r="D36">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>PENDIDIKAN SOSIOLOGI</v>
+          </cell>
+          <cell r="B37">
+            <v>12</v>
+          </cell>
+          <cell r="C37">
+            <v>18</v>
+          </cell>
+          <cell r="D37">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
+          </cell>
+          <cell r="B38">
+            <v>9</v>
+          </cell>
+          <cell r="C38">
+            <v>8</v>
+          </cell>
+          <cell r="D38">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
+          </cell>
+          <cell r="B39">
+            <v>3</v>
+          </cell>
+          <cell r="C39">
+            <v>9</v>
+          </cell>
+          <cell r="D39">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>PETERNAKAN</v>
+          </cell>
+          <cell r="B40">
+            <v>12</v>
+          </cell>
+          <cell r="C40">
+            <v>16</v>
+          </cell>
+          <cell r="D40">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>STATISTIKA</v>
+          </cell>
+          <cell r="B41">
+            <v>29</v>
+          </cell>
+          <cell r="C41">
+            <v>32</v>
+          </cell>
+          <cell r="D41">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>TEKNIK ELEKTRO</v>
+          </cell>
+          <cell r="B42">
+            <v>57</v>
+          </cell>
+          <cell r="C42">
+            <v>50</v>
+          </cell>
+          <cell r="D42">
+            <v>107</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>TEKNIK INDUSTRI</v>
+          </cell>
+          <cell r="B43">
+            <v>131</v>
+          </cell>
+          <cell r="C43">
+            <v>119</v>
+          </cell>
+          <cell r="D43">
+            <v>250</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>TEKNIK KIMIA</v>
+          </cell>
+          <cell r="B44">
+            <v>52</v>
+          </cell>
+          <cell r="C44">
+            <v>51</v>
+          </cell>
+          <cell r="D44">
+            <v>103</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>TEKNIK MESIN</v>
+          </cell>
+          <cell r="B45">
+            <v>54</v>
+          </cell>
+          <cell r="C45">
+            <v>58</v>
+          </cell>
+          <cell r="D45">
+            <v>112</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>TEKNIK METALURGI</v>
+          </cell>
+          <cell r="B46">
+            <v>75</v>
+          </cell>
+          <cell r="C46">
+            <v>61</v>
+          </cell>
+          <cell r="D46">
+            <v>136</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>TEKNIK SIPIL</v>
+          </cell>
+          <cell r="B47">
+            <v>79</v>
+          </cell>
+          <cell r="C47">
+            <v>63</v>
+          </cell>
+          <cell r="D47">
+            <v>142</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>TEKNOLOGI PANGAN</v>
+          </cell>
+          <cell r="B48">
+            <v>73</v>
+          </cell>
+          <cell r="C48">
+            <v>61</v>
+          </cell>
+          <cell r="D48">
+            <v>134</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Grand Total</v>
+          </cell>
+          <cell r="B49">
+            <v>2622</v>
+          </cell>
+          <cell r="C49">
+            <v>2483</v>
+          </cell>
+          <cell r="D49">
+            <v>5105</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,11 +1291,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,13 +1303,17 @@
     <col min="1" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -662,22 +1335,34 @@
       <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f t="shared" ref="A2:A45" si="0">IF(A1="no",1,A1+1)</f>
+        <f>IF(A1="no",1,A1+1)</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -690,36 +1375,52 @@
         <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="F2" s="2">
         <f>VLOOKUP(B2,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>7</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G45" si="1">ROUND(F2/E2*100,1)</f>
-        <v>1.6</v>
-      </c>
-      <c r="H2" s="2">
+        <f>ROUND(F2/E2*100,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(C2,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>448</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(H2/E2*100,1)</f>
+        <v>98.5</v>
+      </c>
+      <c r="J2" s="2">
         <f>VLOOKUP(B2,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="I2">
-        <f>ROUND(H2/F2*100,1)</f>
+      <c r="K2">
+        <f>ROUND(J2/F2*100,1)</f>
         <v>100</v>
       </c>
-      <c r="J2" s="2">
-        <f>F2-H2</f>
+      <c r="L2">
+        <f>VLOOKUP(C2,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <f>ROUND(L2/E2*100,1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="N2" s="2">
+        <f>F2-J2</f>
         <v>0</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K45" si="2">100-I2</f>
+      <c r="O2">
+        <f>100-K2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f>IF(A2="no",1,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3">
@@ -732,36 +1433,52 @@
         <v>55</v>
       </c>
       <c r="E3" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2">
         <f>VLOOKUP(B3,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>9</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="H3" s="2">
+        <f>ROUND(F3/E3*100,1)</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP(C3,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I45" si="0">ROUND(H3/E3*100,1)</f>
+        <v>33</v>
+      </c>
+      <c r="J3" s="2">
         <f>VLOOKUP(B3,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I45" si="3">ROUND(H3/F3*100,1)</f>
+      <c r="K3">
+        <f>ROUND(J3/F3*100,1)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J45" si="4">F3-H3</f>
+      <c r="L3">
+        <f>VLOOKUP(C3,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M45" si="1">ROUND(L3/E3*100,1)</f>
+        <v>67</v>
+      </c>
+      <c r="N3" s="2">
+        <f>F3-J3</f>
         <v>9</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="2"/>
+      <c r="O3">
+        <f>100-K3</f>
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>IF(A3="no",1,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -774,120 +1491,168 @@
         <v>55</v>
       </c>
       <c r="E4" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F4" s="2">
         <f>VLOOKUP(B4,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H4" s="2">
+        <f>ROUND(F4/E4*100,1)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(C4,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>47.9</v>
+      </c>
+      <c r="J4" s="2">
         <f>VLOOKUP(B4,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
+      <c r="K4">
+        <f>ROUND(J4/F4*100,1)</f>
         <v>10</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="4"/>
+      <c r="L4">
+        <f>VLOOKUP(C4,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>52.1</v>
+      </c>
+      <c r="N4" s="2">
+        <f>F4-J4</f>
         <v>9</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
+      <c r="O4">
+        <f>100-K4</f>
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>IF(A4="no",1,A4+1)</f>
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5551</v>
+        <v>3337</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="F5" s="2">
         <f>VLOOKUP(B5,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G5">
+        <f>ROUND(F5/E5*100,1)</f>
+        <v>10.9</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(C5,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>56.6</v>
+      </c>
+      <c r="J5" s="2">
+        <f>VLOOKUP(B5,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <f>ROUND(J5/F5*100,1)</f>
+        <v>45.8</v>
+      </c>
+      <c r="L5">
+        <f>VLOOKUP(C5,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="1"/>
-        <v>11.1</v>
-      </c>
-      <c r="H5" s="2">
-        <f>VLOOKUP(B5,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>61.8</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
+        <v>43.4</v>
+      </c>
+      <c r="N5" s="2">
+        <f>F5-J5</f>
         <v>13</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <f>100-K5</f>
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>IF(A5="no",1,A5+1)</f>
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3337</v>
+        <v>5551</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="2">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="F6" s="2">
         <f>VLOOKUP(B6,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G6">
+        <f>ROUND(F6/E6*100,1)</f>
+        <v>11.1</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(C6,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>42.3</v>
+      </c>
+      <c r="J6" s="2">
+        <f>VLOOKUP(B6,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <f>ROUND(J6/F6*100,1)</f>
+        <v>61.8</v>
+      </c>
+      <c r="L6">
+        <f>VLOOKUP(C6,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>177</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="1"/>
-        <v>11.1</v>
-      </c>
-      <c r="H6" s="2">
-        <f>VLOOKUP(B6,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>45.8</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
+        <v>57.7</v>
+      </c>
+      <c r="N6" s="2">
+        <f>F6-J6</f>
         <v>13</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <f>100-K6</f>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>IF(A6="no",1,A6+1)</f>
         <v>6</v>
       </c>
       <c r="B7">
@@ -900,36 +1665,52 @@
         <v>55</v>
       </c>
       <c r="E7" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F7" s="2">
         <f>VLOOKUP(B7,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>28</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>11.4</v>
-      </c>
-      <c r="H7" s="2">
+        <f>ROUND(F7/E7*100,1)</f>
+        <v>11.2</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(C7,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>131</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>52.4</v>
+      </c>
+      <c r="J7" s="2">
         <f>VLOOKUP(B7,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
+      <c r="K7">
+        <f>ROUND(J7/F7*100,1)</f>
         <v>57.1</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
+      <c r="L7">
+        <f>VLOOKUP(C7,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>119</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>47.6</v>
+      </c>
+      <c r="N7" s="2">
+        <f>F7-J7</f>
         <v>12</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
+      <c r="O7">
+        <f>100-K7</f>
         <v>42.9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>IF(A7="no",1,A7+1)</f>
         <v>7</v>
       </c>
       <c r="B8">
@@ -942,36 +1723,52 @@
         <v>55</v>
       </c>
       <c r="E8" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F8" s="2">
         <f>VLOOKUP(B8,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>57</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="H8" s="2">
+        <f>ROUND(F8/E8*100,1)</f>
+        <v>15.9</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(C8,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>195</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="J8" s="2">
         <f>VLOOKUP(B8,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>44</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
+      <c r="K8">
+        <f>ROUND(J8/F8*100,1)</f>
         <v>77.2</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
+      <c r="L8">
+        <f>VLOOKUP(C8,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>163</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+      <c r="N8" s="2">
+        <f>F8-J8</f>
         <v>13</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
+      <c r="O8">
+        <f>100-K8</f>
         <v>22.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>IF(A8="no",1,A8+1)</f>
         <v>8</v>
       </c>
       <c r="B9">
@@ -984,36 +1781,52 @@
         <v>55</v>
       </c>
       <c r="E9" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2">
         <f>VLOOKUP(B9,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>36</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>17.3</v>
-      </c>
-      <c r="H9" s="2">
+        <f>ROUND(F9/E9*100,1)</f>
+        <v>17.2</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(C9,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>34.9</v>
+      </c>
+      <c r="J9" s="2">
         <f>VLOOKUP(B9,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>17</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
+      <c r="K9">
+        <f>ROUND(J9/F9*100,1)</f>
         <v>47.2</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
+      <c r="L9">
+        <f>VLOOKUP(C9,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>136</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>65.099999999999994</v>
+      </c>
+      <c r="N9" s="2">
+        <f>F9-J9</f>
         <v>19</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
+      <c r="O9">
+        <f>100-K9</f>
         <v>52.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>IF(A9="no",1,A9+1)</f>
         <v>9</v>
       </c>
       <c r="B10">
@@ -1026,36 +1839,52 @@
         <v>55</v>
       </c>
       <c r="E10" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F10" s="2">
         <f>VLOOKUP(B10,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>49</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f>ROUND(F10/E10*100,1)</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
+        <f>VLOOKUP(C10,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>47.4</v>
+      </c>
+      <c r="J10" s="2">
         <f>VLOOKUP(B10,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>34</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
+      <c r="K10">
+        <f>ROUND(J10/F10*100,1)</f>
         <v>69.400000000000006</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
+      <c r="L10">
+        <f>VLOOKUP(C10,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>144</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>52.6</v>
+      </c>
+      <c r="N10" s="2">
+        <f>F10-J10</f>
         <v>15</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
+      <c r="O10">
+        <f>100-K10</f>
         <v>30.599999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>IF(A10="no",1,A10+1)</f>
         <v>10</v>
       </c>
       <c r="B11">
@@ -1068,36 +1897,52 @@
         <v>55</v>
       </c>
       <c r="E11" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F11" s="2">
         <f>VLOOKUP(B11,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>40</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>18.3</v>
-      </c>
-      <c r="H11" s="2">
+        <f>ROUND(F11/E11*100,1)</f>
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(C11,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>115</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>51.8</v>
+      </c>
+      <c r="J11" s="2">
         <f>VLOOKUP(B11,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
+      <c r="K11">
+        <f>ROUND(J11/F11*100,1)</f>
         <v>50</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
+      <c r="L11">
+        <f>VLOOKUP(C11,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>107</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>48.2</v>
+      </c>
+      <c r="N11" s="2">
+        <f>F11-J11</f>
         <v>20</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
+      <c r="O11">
+        <f>100-K11</f>
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>IF(A11="no",1,A11+1)</f>
         <v>11</v>
       </c>
       <c r="B12">
@@ -1110,36 +1955,52 @@
         <v>55</v>
       </c>
       <c r="E12" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F12" s="2">
         <f>VLOOKUP(B12,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>21.3</v>
-      </c>
-      <c r="H12" s="2">
+        <f>ROUND(F12/E12*100,1)</f>
+        <v>21.1</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(C12,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="J12" s="2">
         <f>VLOOKUP(B12,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
+      <c r="K12">
+        <f>ROUND(J12/F12*100,1)</f>
         <v>50</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="4"/>
+      <c r="L12">
+        <f>VLOOKUP(C12,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>44.4</v>
+      </c>
+      <c r="N12" s="2">
+        <f>F12-J12</f>
         <v>15</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
+      <c r="O12">
+        <f>100-K12</f>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>IF(A12="no",1,A12+1)</f>
         <v>12</v>
       </c>
       <c r="B13">
@@ -1152,36 +2013,52 @@
         <v>55</v>
       </c>
       <c r="E13" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2">
         <f>VLOOKUP(B13,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>22.4</v>
-      </c>
-      <c r="H13" s="2">
+        <f>ROUND(F13/E13*100,1)</f>
+        <v>22.1</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(C13,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>55.1</v>
+      </c>
+      <c r="J13" s="2">
         <f>VLOOKUP(B13,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
+      <c r="K13">
+        <f>ROUND(J13/F13*100,1)</f>
         <v>50</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
+      <c r="L13">
+        <f>VLOOKUP(C13,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>44.9</v>
+      </c>
+      <c r="N13" s="2">
+        <f>F13-J13</f>
         <v>15</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
+      <c r="O13">
+        <f>100-K13</f>
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>IF(A13="no",1,A13+1)</f>
         <v>13</v>
       </c>
       <c r="B14">
@@ -1201,29 +2078,45 @@
         <v>23</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>ROUND(F14/E14*100,1)</f>
         <v>23.2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
+        <f>VLOOKUP(C14,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J14" s="2">
         <f>VLOOKUP(B14,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
+      <c r="K14">
+        <f>ROUND(J14/F14*100,1)</f>
         <v>52.2</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="4"/>
+      <c r="L14">
+        <f>VLOOKUP(C14,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>66.7</v>
+      </c>
+      <c r="N14" s="2">
+        <f>F14-J14</f>
         <v>11</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
+      <c r="O14">
+        <f>100-K14</f>
         <v>47.8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>IF(A14="no",1,A14+1)</f>
         <v>14</v>
       </c>
       <c r="B15">
@@ -1236,204 +2129,284 @@
         <v>55</v>
       </c>
       <c r="E15" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F15" s="2">
         <f>VLOOKUP(B15,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>108</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>23.4</v>
-      </c>
-      <c r="H15" s="2">
+        <f>ROUND(F15/E15*100,1)</f>
+        <v>23.2</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(C15,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>266</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>57.2</v>
+      </c>
+      <c r="J15" s="2">
         <f>VLOOKUP(B15,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
+      <c r="K15">
+        <f>ROUND(J15/F15*100,1)</f>
         <v>64.8</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
+      <c r="L15">
+        <f>VLOOKUP(C15,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>199</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>42.8</v>
+      </c>
+      <c r="N15" s="2">
+        <f>F15-J15</f>
         <v>38</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="O15">
+        <f>100-K15</f>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>IF(A15="no",1,A15+1)</f>
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3332</v>
+        <v>4444</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2">
         <f>VLOOKUP(B16,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G16">
+        <f>ROUND(F16/E16*100,1)</f>
+        <v>26.1</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(C16,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="J16" s="2">
+        <f>VLOOKUP(B16,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <f>ROUND(J16/F16*100,1)</f>
+        <v>51.4</v>
+      </c>
+      <c r="L16">
+        <f>VLOOKUP(C16,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>61</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>26.2</v>
-      </c>
-      <c r="H16" s="2">
-        <f>VLOOKUP(B16,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>45.5</v>
+      </c>
+      <c r="N16" s="2">
+        <f>F16-J16</f>
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <f>100-K16</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>IF(A16="no",1,A16+1)</f>
         <v>16</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>57.1</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>42.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="B17">
-        <v>4444</v>
+        <v>3332</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2">
         <f>VLOOKUP(B17,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G17">
+        <f>ROUND(F17/E17*100,1)</f>
+        <v>26.2</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(C17,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>57</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>53.3</v>
+      </c>
+      <c r="J17" s="2">
+        <f>VLOOKUP(B17,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f>ROUND(J17/F17*100,1)</f>
+        <v>57.1</v>
+      </c>
+      <c r="L17">
+        <f>VLOOKUP(C17,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>26.5</v>
-      </c>
-      <c r="H17" s="2">
-        <f>VLOOKUP(B17,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>51.4</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
+        <v>46.7</v>
+      </c>
+      <c r="N17" s="2">
+        <f>F17-J17</f>
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <f>100-K17</f>
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>IF(A17="no",1,A17+1)</f>
         <v>17</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
       <c r="B18">
-        <v>4441</v>
+        <v>3331</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="2">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="F18" s="2">
         <f>VLOOKUP(B18,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <f>ROUND(F18/E18*100,1)</f>
+        <v>26.8</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(C18,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
         <v>54</v>
       </c>
-      <c r="G18">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>48.2</v>
+      </c>
+      <c r="J18" s="2">
+        <f>VLOOKUP(B18,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <f>ROUND(J18/F18*100,1)</f>
+        <v>46.7</v>
+      </c>
+      <c r="L18">
+        <f>VLOOKUP(C18,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
-        <v>27.3</v>
-      </c>
-      <c r="H18" s="2">
-        <f>VLOOKUP(B18,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>28</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>51.9</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51.8</v>
+      </c>
+      <c r="N18" s="2">
+        <f>F18-J18</f>
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <f>100-K18</f>
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f>IF(A18="no",1,A18+1)</f>
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3331</v>
+        <v>4441</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="2">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="F19" s="2">
         <f>VLOOKUP(B19,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G19">
+        <f>ROUND(F19/E19*100,1)</f>
+        <v>27</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP(C19,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J19" s="2">
+        <f>VLOOKUP(B19,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <f>ROUND(J19/F19*100,1)</f>
+        <v>51.9</v>
+      </c>
+      <c r="L19">
+        <f>VLOOKUP(C19,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
-        <v>27.5</v>
-      </c>
-      <c r="H19" s="2">
-        <f>VLOOKUP(B19,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>14</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="3"/>
-        <v>46.7</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="N19" s="2">
+        <f>F19-J19</f>
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <f>100-K19</f>
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>IF(A19="no",1,A19+1)</f>
         <v>19</v>
       </c>
       <c r="B20">
@@ -1453,29 +2426,45 @@
         <v>8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>ROUND(F20/E20*100,1)</f>
         <v>28.6</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
+        <f>VLOOKUP(C20,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>42.9</v>
+      </c>
+      <c r="J20" s="2">
         <f>VLOOKUP(B20,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="3"/>
+      <c r="K20">
+        <f>ROUND(J20/F20*100,1)</f>
         <v>50</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
+      <c r="L20">
+        <f>VLOOKUP(C20,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>57.1</v>
+      </c>
+      <c r="N20" s="2">
+        <f>F20-J20</f>
         <v>4</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
+      <c r="O20">
+        <f>100-K20</f>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f>IF(A20="no",1,A20+1)</f>
         <v>20</v>
       </c>
       <c r="B21">
@@ -1488,120 +2477,168 @@
         <v>55</v>
       </c>
       <c r="E21" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F21" s="2">
         <f>VLOOKUP(B21,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>30</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>30.3</v>
-      </c>
-      <c r="H21" s="2">
+        <f>ROUND(F21/E21*100,1)</f>
+        <v>29.1</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP(C21,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="J21" s="2">
         <f>VLOOKUP(B21,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="3"/>
+      <c r="K21">
+        <f>ROUND(J21/F21*100,1)</f>
         <v>53.3</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="4"/>
+      <c r="L21">
+        <f>VLOOKUP(C21,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="N21" s="2">
+        <f>F21-J21</f>
         <v>14</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
+      <c r="O21">
+        <f>100-K21</f>
         <v>46.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>IF(A21="no",1,A21+1)</f>
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2227</v>
+        <v>5554</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2">
         <f>VLOOKUP(B22,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>ROUND(F22/E22*100,1)</f>
+        <v>30.5</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(C22,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="J22" s="2">
         <f>VLOOKUP(B22,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="3"/>
-        <v>59.1</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <f>ROUND(J22/F22*100,1)</f>
+        <v>52</v>
+      </c>
+      <c r="L22">
+        <f>VLOOKUP(C22,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>62.2</v>
+      </c>
+      <c r="N22" s="2">
+        <f>F22-J22</f>
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <f>100-K22</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>IF(A22="no",1,A22+1)</f>
         <v>22</v>
       </c>
       <c r="B23">
-        <v>5554</v>
+        <v>2227</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2">
         <f>VLOOKUP(B23,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>31.3</v>
-      </c>
-      <c r="H23" s="2">
+        <f>ROUND(F23/E23*100,1)</f>
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(C23,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>52.1</v>
+      </c>
+      <c r="J23" s="2">
         <f>VLOOKUP(B23,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>13</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <f>ROUND(J23/F23*100,1)</f>
+        <v>59.1</v>
+      </c>
+      <c r="L23">
+        <f>VLOOKUP(C23,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>47.9</v>
+      </c>
+      <c r="N23" s="2">
+        <f>F23-J23</f>
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <f>100-K23</f>
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>IF(A23="no",1,A23+1)</f>
         <v>23</v>
       </c>
       <c r="B24">
@@ -1621,281 +2658,393 @@
         <v>20</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>ROUND(F24/E24*100,1)</f>
         <v>31.7</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
+        <f>VLOOKUP(C24,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="J24" s="2">
         <f>VLOOKUP(B24,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="3"/>
+      <c r="K24">
+        <f>ROUND(J24/F24*100,1)</f>
         <v>30</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="4"/>
+      <c r="L24">
+        <f>VLOOKUP(C24,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="N24" s="2">
+        <f>F24-J24</f>
         <v>14</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
+      <c r="O24">
+        <f>100-K24</f>
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>IF(A24="no",1,A24+1)</f>
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4445</v>
+        <v>2281</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="2">
-        <v>61</v>
+      <c r="E25">
+        <v>9</v>
       </c>
       <c r="F25" s="2">
         <f>VLOOKUP(B25,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G25">
+        <f>ROUND(F25/E25*100,1)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(C25,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+      <c r="J25" s="2">
+        <f>VLOOKUP(B25,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>ROUND(J25/F25*100,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>VLOOKUP(C25,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
-        <v>36.1</v>
-      </c>
-      <c r="H25" s="2">
-        <f>VLOOKUP(B25,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="3"/>
-        <v>40.9</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88.9</v>
+      </c>
+      <c r="N25" s="2">
+        <f>F25-J25</f>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f>100-K25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>IF(A25="no",1,A25+1)</f>
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2223</v>
+        <v>4445</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="2">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2">
         <f>VLOOKUP(B26,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G26">
+        <f>ROUND(F26/E26*100,1)</f>
+        <v>36.1</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(C26,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>36.1</v>
+      </c>
+      <c r="J26" s="2">
+        <f>VLOOKUP(B26,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="K26">
+        <f>ROUND(J26/F26*100,1)</f>
+        <v>40.9</v>
+      </c>
+      <c r="L26">
+        <f>VLOOKUP(C26,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>39</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="1"/>
-        <v>37.9</v>
-      </c>
-      <c r="H26" s="2">
-        <f>VLOOKUP(B26,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>45.5</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63.9</v>
+      </c>
+      <c r="N26" s="2">
+        <f>F26-J26</f>
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <f>100-K26</f>
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f>IF(A26="no",1,A26+1)</f>
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2286</v>
+        <v>2223</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="2">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2">
         <f>VLOOKUP(B27,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <f>ROUND(F27/E27*100,1)</f>
+        <v>37.1</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(C27,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>41.6</v>
+      </c>
+      <c r="J27" s="2">
+        <f>VLOOKUP(B27,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>15</v>
       </c>
-      <c r="G27">
+      <c r="K27">
+        <f>ROUND(J27/F27*100,1)</f>
+        <v>45.5</v>
+      </c>
+      <c r="L27">
+        <f>VLOOKUP(C27,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="1"/>
-        <v>46.9</v>
-      </c>
-      <c r="H27" s="2">
-        <f>VLOOKUP(B27,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58.4</v>
+      </c>
+      <c r="N27" s="2">
+        <f>F27-J27</f>
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <f>100-K27</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f>IF(A27="no",1,A27+1)</f>
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2222</v>
+        <v>2286</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="2">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2">
         <f>VLOOKUP(B28,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G28">
+        <f>ROUND(F28/E28*100,1)</f>
+        <v>46.9</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP(C28,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="J28" s="2">
+        <f>VLOOKUP(B28,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <f>ROUND(J28/F28*100,1)</f>
+        <v>60</v>
+      </c>
+      <c r="L28">
+        <f>VLOOKUP(C28,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="H28" s="2">
-        <f>VLOOKUP(B28,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="3"/>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>61.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+      <c r="N28" s="2">
+        <f>F28-J28</f>
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <f>100-K28</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>IF(A28="no",1,A28+1)</f>
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2290</v>
+        <v>2222</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="2">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2">
         <f>VLOOKUP(B29,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G29">
+        <f>ROUND(F29/E29*100,1)</f>
+        <v>47</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(C29,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
+      </c>
+      <c r="J29" s="2">
+        <f>VLOOKUP(B29,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <f>ROUND(J29/F29*100,1)</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="L29">
+        <f>VLOOKUP(C29,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>41</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H29" s="2">
-        <f>VLOOKUP(B29,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62.1</v>
+      </c>
+      <c r="N29" s="2">
+        <f>F29-J29</f>
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <f>100-K29</f>
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>IF(A29="no",1,A29+1)</f>
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2281</v>
+        <v>2290</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
       </c>
-      <c r="E30">
-        <v>6</v>
+      <c r="E30" s="2">
+        <v>30</v>
       </c>
       <c r="F30" s="2">
         <f>VLOOKUP(B30,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G30">
+        <f>ROUND(F30/E30*100,1)</f>
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP(C30,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J30" s="2">
+        <f>VLOOKUP(B30,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <f>ROUND(J30/F30*100,1)</f>
+        <v>60</v>
+      </c>
+      <c r="L30">
+        <f>VLOOKUP(C30,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H30" s="2">
-        <f>VLOOKUP(B30,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N30" s="2">
+        <f>F30-J30</f>
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <f>100-K30</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>IF(A30="no",1,A30+1)</f>
         <v>30</v>
       </c>
       <c r="B31">
@@ -1915,29 +3064,45 @@
         <v>57</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>ROUND(F31/E31*100,1)</f>
         <v>52.8</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
+        <f>VLOOKUP(C31,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>43</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J31" s="2">
         <f>VLOOKUP(B31,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>31</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
+      <c r="K31">
+        <f>ROUND(J31/F31*100,1)</f>
         <v>54.4</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="4"/>
+      <c r="L31">
+        <f>VLOOKUP(C31,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>60.2</v>
+      </c>
+      <c r="N31" s="2">
+        <f>F31-J31</f>
         <v>26</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
+      <c r="O31">
+        <f>100-K31</f>
         <v>45.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>IF(A31="no",1,A31+1)</f>
         <v>31</v>
       </c>
       <c r="B32">
@@ -1957,29 +3122,45 @@
         <v>15</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f>ROUND(F32/E32*100,1)</f>
         <v>57.7</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
+        <f>VLOOKUP(C32,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="J32" s="2">
         <f>VLOOKUP(B32,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="3"/>
+      <c r="K32">
+        <f>ROUND(J32/F32*100,1)</f>
         <v>53.3</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="4"/>
+      <c r="L32">
+        <f>VLOOKUP(C32,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="N32" s="2">
+        <f>F32-J32</f>
         <v>7</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
+      <c r="O32">
+        <f>100-K32</f>
         <v>46.7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f>IF(A32="no",1,A32+1)</f>
         <v>32</v>
       </c>
       <c r="B33">
@@ -1999,29 +3180,45 @@
         <v>42</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f>ROUND(F33/E33*100,1)</f>
         <v>58.3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
+        <f>VLOOKUP(C33,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+      <c r="J33" s="2">
         <f>VLOOKUP(B33,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="3"/>
+      <c r="K33">
+        <f>ROUND(J33/F33*100,1)</f>
         <v>23.8</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="4"/>
+      <c r="L33">
+        <f>VLOOKUP(C33,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>55</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="N33" s="2">
+        <f>F33-J33</f>
         <v>32</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
+      <c r="O33">
+        <f>100-K33</f>
         <v>76.2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f>IF(A33="no",1,A33+1)</f>
         <v>33</v>
       </c>
       <c r="B34">
@@ -2041,197 +3238,277 @@
         <v>7</v>
       </c>
       <c r="G34">
+        <f>ROUND(F34/E34*100,1)</f>
+        <v>63.6</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP(C34,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>27.3</v>
+      </c>
+      <c r="J34" s="2">
+        <f>VLOOKUP(B34,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <f>ROUND(J34/F34*100,1)</f>
+        <v>42.9</v>
+      </c>
+      <c r="L34">
+        <f>VLOOKUP(C34,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>72.7</v>
+      </c>
+      <c r="N34" s="2">
+        <f>F34-J34</f>
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f>100-K34</f>
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>IF(A34="no",1,A34+1)</f>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3338</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="2">
+        <v>61</v>
+      </c>
+      <c r="F35" s="2">
+        <f>VLOOKUP(B35,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(F35/E35*100,1)</f>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP(C35,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="J35" s="2">
+        <f>VLOOKUP(B35,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="K35">
+        <f>ROUND(J35/F35*100,1)</f>
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <f>VLOOKUP(C35,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="N35" s="2">
+        <f>F35-J35</f>
+        <v>20</v>
+      </c>
+      <c r="O35">
+        <f>100-K35</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>IF(A35="no",1,A35+1)</f>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2284</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2">
+        <v>12</v>
+      </c>
+      <c r="F36" s="2">
+        <f>VLOOKUP(B36,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(F36/E36*100,1)</f>
+        <v>66.7</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP(C36,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J36" s="2">
+        <f>VLOOKUP(B36,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <f>ROUND(J36/F36*100,1)</f>
+        <v>37.5</v>
+      </c>
+      <c r="L36">
+        <f>VLOOKUP(C36,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="N36" s="2">
+        <f>F36-J36</f>
+        <v>5</v>
+      </c>
+      <c r="O36">
+        <f>100-K36</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>IF(A36="no",1,A36+1)</f>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2280</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
+        <f>VLOOKUP(B37,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(F37/E37*100,1)</f>
+        <v>66.7</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP(C37,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J37" s="2">
+        <f>VLOOKUP(B37,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <f>ROUND(J37/F37*100,1)</f>
+        <v>50</v>
+      </c>
+      <c r="L37">
+        <f>VLOOKUP(C37,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>66.7</v>
+      </c>
+      <c r="N37" s="2">
+        <f>F37-J37</f>
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <f>100-K37</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>IF(A37="no",1,A37+1)</f>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2282</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2">
+        <f>VLOOKUP(B38,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(F38/E38*100,1)</f>
+        <v>68.2</v>
+      </c>
+      <c r="H38">
+        <f>VLOOKUP(C38,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>36.4</v>
+      </c>
+      <c r="J38" s="2">
+        <f>VLOOKUP(B38,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <f>ROUND(J38/F38*100,1)</f>
+        <v>53.3</v>
+      </c>
+      <c r="L38">
+        <f>VLOOKUP(C38,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="1"/>
         <v>63.6</v>
       </c>
-      <c r="H34" s="2">
-        <f>VLOOKUP(B34,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="3"/>
-        <v>42.9</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>57.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2284</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="2">
-        <v>12</v>
-      </c>
-      <c r="F35" s="2">
-        <f>VLOOKUP(B35,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>66.7</v>
-      </c>
-      <c r="H35" s="2">
-        <f>VLOOKUP(B35,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2280</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="2">
-        <v>9</v>
-      </c>
-      <c r="F36" s="2">
-        <f>VLOOKUP(B36,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>66.7</v>
-      </c>
-      <c r="H36" s="2">
-        <f>VLOOKUP(B36,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2282</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="2">
-        <v>22</v>
-      </c>
-      <c r="F37" s="2">
-        <f>VLOOKUP(B37,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>68.2</v>
-      </c>
-      <c r="H37" s="2">
-        <f>VLOOKUP(B37,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="3"/>
-        <v>53.3</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="4"/>
+      <c r="N38" s="2">
+        <f>F38-J38</f>
         <v>7</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
+      <c r="O38">
+        <f>100-K38</f>
         <v>46.7</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3338</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="2">
-        <v>58</v>
-      </c>
-      <c r="F38" s="2">
-        <f>VLOOKUP(B38,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>40</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="H38" s="2">
-        <f>VLOOKUP(B38,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f>IF(A38="no",1,A38+1)</f>
         <v>38</v>
       </c>
       <c r="B39">
@@ -2251,29 +3528,45 @@
         <v>23</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f>ROUND(F39/E39*100,1)</f>
         <v>71.900000000000006</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
+        <f>VLOOKUP(C39,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>31.3</v>
+      </c>
+      <c r="J39" s="2">
         <f>VLOOKUP(B39,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
+      <c r="K39">
+        <f>ROUND(J39/F39*100,1)</f>
         <v>43.5</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="4"/>
+      <c r="L39">
+        <f>VLOOKUP(C39,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>68.8</v>
+      </c>
+      <c r="N39" s="2">
+        <f>F39-J39</f>
         <v>13</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
+      <c r="O39">
+        <f>100-K39</f>
         <v>56.5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f>IF(A39="no",1,A39+1)</f>
         <v>39</v>
       </c>
       <c r="B40">
@@ -2293,155 +3586,219 @@
         <v>25</v>
       </c>
       <c r="G40">
+        <f>ROUND(F40/E40*100,1)</f>
+        <v>75.8</v>
+      </c>
+      <c r="H40">
+        <f>VLOOKUP(C40,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>24.2</v>
+      </c>
+      <c r="J40" s="2">
+        <f>VLOOKUP(B40,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <f>ROUND(J40/F40*100,1)</f>
+        <v>32</v>
+      </c>
+      <c r="L40">
+        <f>VLOOKUP(C40,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="1"/>
         <v>75.8</v>
       </c>
-      <c r="H40" s="2">
-        <f>VLOOKUP(B40,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" si="4"/>
+      <c r="N40" s="2">
+        <f>F40-J40</f>
         <v>17</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
+      <c r="O40">
+        <f>100-K40</f>
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f>IF(A40="no",1,A40+1)</f>
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2228</v>
+        <v>2283</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2">
         <f>VLOOKUP(B41,Sheet2!$A$2:$E$45,5,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <f>ROUND(F41/E41*100,1)</f>
+        <v>76.5</v>
+      </c>
+      <c r="H41">
+        <f>VLOOKUP(C41,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>52.9</v>
+      </c>
+      <c r="J41" s="2">
+        <f>VLOOKUP(B41,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <f>ROUND(J41/F41*100,1)</f>
+        <v>69.2</v>
+      </c>
+      <c r="L41">
+        <f>VLOOKUP(C41,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>47.1</v>
+      </c>
+      <c r="N41" s="2">
+        <f>F41-J41</f>
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <f>100-K41</f>
+        <v>30.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>IF(A41="no",1,A41+1)</f>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2224</v>
+      </c>
+      <c r="C42" t="s">
         <v>22</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>78.599999999999994</v>
-      </c>
-      <c r="H41" s="2">
-        <f>VLOOKUP(B41,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="3"/>
-        <v>45.5</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>2283</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
       </c>
       <c r="E42" s="2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2">
         <f>VLOOKUP(B42,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G42">
+        <f>ROUND(F42/E42*100,1)</f>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H42">
+        <f>VLOOKUP(C42,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J42" s="2">
+        <f>VLOOKUP(B42,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <f>ROUND(J42/F42*100,1)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="L42">
+        <f>VLOOKUP(C42,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="1"/>
-        <v>81.3</v>
-      </c>
-      <c r="H42" s="2">
-        <f>VLOOKUP(B42,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="3"/>
-        <v>69.2</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>30.799999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65.7</v>
+      </c>
+      <c r="N42" s="2">
+        <f>F42-J42</f>
+        <v>16</v>
+      </c>
+      <c r="O42">
+        <f>100-K42</f>
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f>IF(A42="no",1,A42+1)</f>
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
       </c>
       <c r="E43" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F43" s="2">
         <f>VLOOKUP(B43,Sheet2!$A$2:$E$45,5,FALSE)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G43">
+        <f>ROUND(F43/E43*100,1)</f>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H43">
+        <f>VLOOKUP(C43,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J43" s="2">
+        <f>VLOOKUP(B43,Sheet2!$A$2:$C$45,3,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f>ROUND(J43/F43*100,1)</f>
+        <v>45.5</v>
+      </c>
+      <c r="L43">
+        <f>VLOOKUP(C43,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="1"/>
-        <v>81.8</v>
-      </c>
-      <c r="H43" s="2">
-        <f>VLOOKUP(B43,Sheet2!$A$2:$C$45,3,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="3"/>
-        <v>40.700000000000003</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>59.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64.3</v>
+      </c>
+      <c r="N43" s="2">
+        <f>F43-J43</f>
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <f>100-K43</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f>IF(A43="no",1,A43+1)</f>
         <v>43</v>
       </c>
       <c r="B44">
@@ -2454,36 +3811,52 @@
         <v>55</v>
       </c>
       <c r="E44" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2">
         <f>VLOOKUP(B44,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>8</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>88.9</v>
-      </c>
-      <c r="H44" s="2">
+        <f>ROUND(F44/E44*100,1)</f>
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <f>VLOOKUP(C44,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J44" s="2">
         <f>VLOOKUP(B44,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>6</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="3"/>
+      <c r="K44">
+        <f>ROUND(J44/F44*100,1)</f>
         <v>75</v>
       </c>
-      <c r="J44" s="2">
-        <f t="shared" si="4"/>
+      <c r="L44">
+        <f>VLOOKUP(C44,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="2">
+        <f>F44-J44</f>
         <v>2</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
+      <c r="O44">
+        <f>100-K44</f>
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f>IF(A44="no",1,A44+1)</f>
         <v>44</v>
       </c>
       <c r="B45">
@@ -2496,36 +3869,52 @@
         <v>55</v>
       </c>
       <c r="E45" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2">
         <f>VLOOKUP(B45,Sheet2!$A$2:$E$45,5,FALSE)</f>
         <v>9</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="H45" s="2">
+        <f>ROUND(F45/E45*100,1)</f>
+        <v>81.8</v>
+      </c>
+      <c r="H45">
+        <f>VLOOKUP(C45,[1]Sheet2!$A$5:$D$49,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>81.8</v>
+      </c>
+      <c r="J45" s="2">
         <f>VLOOKUP(B45,Sheet2!$A$2:$C$45,3,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="3"/>
+      <c r="K45">
+        <f>ROUND(J45/F45*100,1)</f>
         <v>88.9</v>
       </c>
-      <c r="J45" s="2">
-        <f t="shared" si="4"/>
+      <c r="L45">
+        <f>VLOOKUP(C45,[1]Sheet2!$A$5:$D$49,3,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
+      </c>
+      <c r="N45" s="2">
+        <f>F45-J45</f>
         <v>1</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
+      <c r="O45">
+        <f>100-K45</f>
         <v>11.099999999999994</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K45">
+  <autoFilter ref="A1:O42" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O45">
       <sortCondition ref="G1:G42"/>
     </sortState>
   </autoFilter>
@@ -2901,7 +4290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9294CB18-54B6-419B-B62B-B5DC021F88D3}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
